--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_contacts_150429.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_contacts_150429.xlsx
@@ -497,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -529,21 +529,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,20 +575,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,25 +885,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="3.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -930,62 +927,62 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4">
         <v>255</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>255</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -993,134 +990,134 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>255</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>200</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>50</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>50</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>200</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>200</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1128,48 +1125,48 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1178,87 +1175,87 @@
       <c r="D14" s="4">
         <v>255</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="5">
         <v>255</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1267,13 +1264,13 @@
       <c r="D19" s="6">
         <v>150</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1282,13 +1279,13 @@
       <c r="D20" s="6">
         <v>150</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1297,38 +1294,38 @@
       <c r="D21" s="6">
         <v>50</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1336,7 +1333,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
